--- a/Template.xlsx
+++ b/Template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>tasks</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>visualizar post</t>
-  </si>
-  <si>
-    <t>despliegue</t>
   </si>
 </sst>
 </file>
@@ -379,15 +376,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45530.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45530.0</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
